--- a/Code/Results/Cases/Case_4_243/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_243/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9968040407068167</v>
+        <v>1.028305176942251</v>
       </c>
       <c r="D2">
-        <v>1.019703926744854</v>
+        <v>1.037840886292024</v>
       </c>
       <c r="E2">
-        <v>1.00500132357764</v>
+        <v>1.031938115144355</v>
       </c>
       <c r="F2">
-        <v>1.023662182483051</v>
+        <v>1.046297517379998</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043746108701503</v>
+        <v>1.034281192670563</v>
       </c>
       <c r="J2">
-        <v>1.019080764382728</v>
+        <v>1.03345823320821</v>
       </c>
       <c r="K2">
-        <v>1.030895413490551</v>
+        <v>1.040630621576836</v>
       </c>
       <c r="L2">
-        <v>1.01639141899822</v>
+        <v>1.034744788759741</v>
       </c>
       <c r="M2">
-        <v>1.034801421617362</v>
+        <v>1.049063347252654</v>
       </c>
       <c r="N2">
-        <v>1.010169839237711</v>
+        <v>1.015140285291993</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.001178117585446</v>
+        <v>1.029239457544107</v>
       </c>
       <c r="D3">
-        <v>1.022974606351795</v>
+        <v>1.038559601824744</v>
       </c>
       <c r="E3">
-        <v>1.008867124784793</v>
+        <v>1.032819993698733</v>
       </c>
       <c r="F3">
-        <v>1.027446768453161</v>
+        <v>1.047148944768834</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044749583046749</v>
+        <v>1.034435212746929</v>
       </c>
       <c r="J3">
-        <v>1.021636717370331</v>
+        <v>1.034033144457662</v>
       </c>
       <c r="K3">
-        <v>1.033321725549626</v>
+        <v>1.04115946888435</v>
       </c>
       <c r="L3">
-        <v>1.019387792481563</v>
+        <v>1.035435139295659</v>
       </c>
       <c r="M3">
-        <v>1.037740105905369</v>
+        <v>1.049726285302669</v>
       </c>
       <c r="N3">
-        <v>1.0110387346327</v>
+        <v>1.015333464076639</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.003953397229552</v>
+        <v>1.029844588848975</v>
       </c>
       <c r="D4">
-        <v>1.025051991990989</v>
+        <v>1.039024979043206</v>
       </c>
       <c r="E4">
-        <v>1.011325664773151</v>
+        <v>1.033391568531935</v>
       </c>
       <c r="F4">
-        <v>1.029852188547523</v>
+        <v>1.047700526418051</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045376071126948</v>
+        <v>1.034533678277589</v>
       </c>
       <c r="J4">
-        <v>1.023256512497996</v>
+        <v>1.034405131790107</v>
       </c>
       <c r="K4">
-        <v>1.034857178836005</v>
+        <v>1.041501317872235</v>
       </c>
       <c r="L4">
-        <v>1.021289294059519</v>
+        <v>1.035882147632458</v>
       </c>
       <c r="M4">
-        <v>1.039603194726982</v>
+        <v>1.050155257396035</v>
       </c>
       <c r="N4">
-        <v>1.011589060214438</v>
+        <v>1.015458383820889</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.005107402549191</v>
+        <v>1.030099126035331</v>
       </c>
       <c r="D5">
-        <v>1.025916271344629</v>
+        <v>1.039220698759859</v>
       </c>
       <c r="E5">
-        <v>1.012349308513896</v>
+        <v>1.033632082300019</v>
       </c>
       <c r="F5">
-        <v>1.030853346173526</v>
+        <v>1.047932565636267</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045634086237628</v>
+        <v>1.034574786333646</v>
       </c>
       <c r="J5">
-        <v>1.023929555978098</v>
+        <v>1.034561509749921</v>
       </c>
       <c r="K5">
-        <v>1.035494637837833</v>
+        <v>1.041644946105406</v>
       </c>
       <c r="L5">
-        <v>1.022080017383636</v>
+        <v>1.036070141848781</v>
       </c>
       <c r="M5">
-        <v>1.040377496659078</v>
+        <v>1.05033559755821</v>
       </c>
       <c r="N5">
-        <v>1.011817645370717</v>
+        <v>1.015510880553147</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.005300431897609</v>
+        <v>1.030141872126207</v>
       </c>
       <c r="D6">
-        <v>1.026060864487861</v>
+        <v>1.039253565323041</v>
       </c>
       <c r="E6">
-        <v>1.012520610363129</v>
+        <v>1.033672478696669</v>
       </c>
       <c r="F6">
-        <v>1.031020862925387</v>
+        <v>1.047971535043195</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045677096707876</v>
+        <v>1.034581671718925</v>
       </c>
       <c r="J6">
-        <v>1.0240421053659</v>
+        <v>1.034587765943857</v>
       </c>
       <c r="K6">
-        <v>1.035601204467274</v>
+        <v>1.041669056895085</v>
       </c>
       <c r="L6">
-        <v>1.022212282757432</v>
+        <v>1.036101711087085</v>
       </c>
       <c r="M6">
-        <v>1.040506988449546</v>
+        <v>1.050365877443136</v>
       </c>
       <c r="N6">
-        <v>1.011855865518353</v>
+        <v>1.015519693828346</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.003968866508162</v>
+        <v>1.029847989438622</v>
       </c>
       <c r="D7">
-        <v>1.025063575753482</v>
+        <v>1.03902759396633</v>
       </c>
       <c r="E7">
-        <v>1.011339381313026</v>
+        <v>1.033394781411453</v>
       </c>
       <c r="F7">
-        <v>1.029865605257561</v>
+        <v>1.04770362633319</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045379539665463</v>
+        <v>1.034534228693313</v>
       </c>
       <c r="J7">
-        <v>1.023265536541821</v>
+        <v>1.034407221343032</v>
       </c>
       <c r="K7">
-        <v>1.034865727921208</v>
+        <v>1.041503237375473</v>
       </c>
       <c r="L7">
-        <v>1.021299893447726</v>
+        <v>1.035884659339314</v>
       </c>
       <c r="M7">
-        <v>1.039613575779933</v>
+        <v>1.050157667110641</v>
       </c>
       <c r="N7">
-        <v>1.011592125369254</v>
+        <v>1.015459085362045</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9982939576868483</v>
+        <v>1.028620798774823</v>
       </c>
       <c r="D8">
-        <v>1.020817504836826</v>
+        <v>1.03808371235328</v>
       </c>
       <c r="E8">
-        <v>1.00631688114845</v>
+        <v>1.032235954543607</v>
       </c>
       <c r="F8">
-        <v>1.024950399188788</v>
+        <v>1.046585125453335</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04409002848728</v>
+        <v>1.034333491713284</v>
       </c>
       <c r="J8">
-        <v>1.019951764615295</v>
+        <v>1.033652530400522</v>
       </c>
       <c r="K8">
-        <v>1.031722684081978</v>
+        <v>1.040809419898882</v>
       </c>
       <c r="L8">
-        <v>1.017411960774085</v>
+        <v>1.034978032005405</v>
       </c>
       <c r="M8">
-        <v>1.035802683360759</v>
+        <v>1.049287388044505</v>
       </c>
       <c r="N8">
-        <v>1.010466000900126</v>
+        <v>1.015205587251458</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9878509274842071</v>
+        <v>1.026462893412457</v>
       </c>
       <c r="D9">
-        <v>1.01302400685559</v>
+        <v>1.036422992106658</v>
       </c>
       <c r="E9">
-        <v>0.9971219140897953</v>
+        <v>1.030201219588018</v>
       </c>
       <c r="F9">
-        <v>1.015941030242651</v>
+        <v>1.044619242258252</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041637960716979</v>
+        <v>1.033970635351037</v>
       </c>
       <c r="J9">
-        <v>1.013840117729931</v>
+        <v>1.032322571362565</v>
       </c>
       <c r="K9">
-        <v>1.02590925451374</v>
+        <v>1.039584190646869</v>
       </c>
       <c r="L9">
-        <v>1.01026185945924</v>
+        <v>1.033382830497585</v>
       </c>
       <c r="M9">
-        <v>1.028780663421651</v>
+        <v>1.047753956964096</v>
       </c>
       <c r="N9">
-        <v>1.008386677519281</v>
+        <v>1.01475829787706</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9805589589809438</v>
+        <v>1.025027420588707</v>
       </c>
       <c r="D10">
-        <v>1.007599805787813</v>
+        <v>1.035317629798499</v>
       </c>
       <c r="E10">
-        <v>0.9907362520999006</v>
+        <v>1.028849699800504</v>
       </c>
       <c r="F10">
-        <v>1.009678094923243</v>
+        <v>1.043312149429177</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039875006949827</v>
+        <v>1.033722625917546</v>
       </c>
       <c r="J10">
-        <v>1.009565722332566</v>
+        <v>1.031435928139813</v>
       </c>
       <c r="K10">
-        <v>1.021833185880743</v>
+        <v>1.0387656681741</v>
       </c>
       <c r="L10">
-        <v>1.005274805320521</v>
+        <v>1.032321041601073</v>
       </c>
       <c r="M10">
-        <v>1.023874779700503</v>
+        <v>1.046731824385925</v>
       </c>
       <c r="N10">
-        <v>1.006931065102513</v>
+        <v>1.014459730450078</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9773154673318548</v>
+        <v>1.024406600723077</v>
       </c>
       <c r="D11">
-        <v>1.005192255910062</v>
+        <v>1.034839437919546</v>
       </c>
       <c r="E11">
-        <v>0.9879047922630095</v>
+        <v>1.028265673395345</v>
       </c>
       <c r="F11">
-        <v>1.00689986395803</v>
+        <v>1.042747012897803</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039079433739727</v>
+        <v>1.033613794274088</v>
       </c>
       <c r="J11">
-        <v>1.007663376462284</v>
+        <v>1.031052013716292</v>
       </c>
       <c r="K11">
-        <v>1.020016913707255</v>
+        <v>1.03841084921059</v>
       </c>
       <c r="L11">
-        <v>1.003058468929746</v>
+        <v>1.031861688213268</v>
       </c>
       <c r="M11">
-        <v>1.021692821557575</v>
+        <v>1.046289283054354</v>
       </c>
       <c r="N11">
-        <v>1.006282969442265</v>
+        <v>1.014330363721912</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9760970567765717</v>
+        <v>1.02417611417871</v>
       </c>
       <c r="D12">
-        <v>1.004288724451436</v>
+        <v>1.034661883374991</v>
       </c>
       <c r="E12">
-        <v>0.9868425560069207</v>
+        <v>1.028048920267137</v>
       </c>
       <c r="F12">
-        <v>1.005857442681655</v>
+        <v>1.042537224309632</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038778921189086</v>
+        <v>1.033573153282687</v>
       </c>
       <c r="J12">
-        <v>1.006948650844777</v>
+        <v>1.030909413006208</v>
       </c>
       <c r="K12">
-        <v>1.019334217948948</v>
+        <v>1.038278995678173</v>
       </c>
       <c r="L12">
-        <v>1.002226249042601</v>
+        <v>1.031691126407484</v>
       </c>
       <c r="M12">
-        <v>1.020873277190782</v>
+        <v>1.046124912153467</v>
       </c>
       <c r="N12">
-        <v>1.006039439944417</v>
+        <v>1.014282298781717</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9763590388421854</v>
+        <v>1.024225549168068</v>
       </c>
       <c r="D13">
-        <v>1.004482961118102</v>
+        <v>1.034699966361821</v>
       </c>
       <c r="E13">
-        <v>0.9870708935357575</v>
+        <v>1.028095406368093</v>
       </c>
       <c r="F13">
-        <v>1.006081527352267</v>
+        <v>1.042582218843401</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038843611206679</v>
+        <v>1.03358188068208</v>
       </c>
       <c r="J13">
-        <v>1.00710233513432</v>
+        <v>1.030940001226822</v>
       </c>
       <c r="K13">
-        <v>1.019481028604782</v>
+        <v>1.038307281313747</v>
       </c>
       <c r="L13">
-        <v>1.002405176233785</v>
+        <v>1.031727709647036</v>
       </c>
       <c r="M13">
-        <v>1.021049489333728</v>
+        <v>1.046160169856887</v>
       </c>
       <c r="N13">
-        <v>1.006091806521039</v>
+        <v>1.01429260942819</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9772150355256785</v>
+        <v>1.024387546310203</v>
       </c>
       <c r="D14">
-        <v>1.00511776115295</v>
+        <v>1.034824759825681</v>
       </c>
       <c r="E14">
-        <v>0.9878172049656461</v>
+        <v>1.028247752828276</v>
       </c>
       <c r="F14">
-        <v>1.006813913503657</v>
+        <v>1.042729669081558</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039054696283764</v>
+        <v>1.033610439281651</v>
       </c>
       <c r="J14">
-        <v>1.007604464690357</v>
+        <v>1.031040226246388</v>
       </c>
       <c r="K14">
-        <v>1.019960648171682</v>
+        <v>1.038399951332566</v>
       </c>
       <c r="L14">
-        <v>1.002989862987969</v>
+        <v>1.031847588239563</v>
       </c>
       <c r="M14">
-        <v>1.021625265167359</v>
+        <v>1.046275695920243</v>
       </c>
       <c r="N14">
-        <v>1.006262897033252</v>
+        <v>1.014326390909128</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9777406147413217</v>
+        <v>1.024487373179076</v>
       </c>
       <c r="D15">
-        <v>1.005507642289194</v>
+        <v>1.034901658148768</v>
       </c>
       <c r="E15">
-        <v>0.9882756236044893</v>
+        <v>1.02834164244187</v>
       </c>
       <c r="F15">
-        <v>1.007263759018465</v>
+        <v>1.0428205350859</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039184084991868</v>
+        <v>1.033628006562344</v>
       </c>
       <c r="J15">
-        <v>1.007912757141651</v>
+        <v>1.031101978510542</v>
       </c>
       <c r="K15">
-        <v>1.02025508008909</v>
+        <v>1.038457040741517</v>
       </c>
       <c r="L15">
-        <v>1.003348905520381</v>
+        <v>1.031921457713031</v>
       </c>
       <c r="M15">
-        <v>1.021978805591162</v>
+        <v>1.046346876526903</v>
       </c>
       <c r="N15">
-        <v>1.006367936984246</v>
+        <v>1.014347203166385</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9807723469893553</v>
+        <v>1.025068638232885</v>
       </c>
       <c r="D16">
-        <v>1.00775831203414</v>
+        <v>1.035349375161015</v>
       </c>
       <c r="E16">
-        <v>0.9909227230955222</v>
+        <v>1.028888484914164</v>
       </c>
       <c r="F16">
-        <v>1.009861037663656</v>
+        <v>1.043349673582176</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039927114367797</v>
+        <v>1.033729818383351</v>
       </c>
       <c r="J16">
-        <v>1.009690858448898</v>
+        <v>1.031461407529007</v>
       </c>
       <c r="K16">
-        <v>1.02195261611713</v>
+        <v>1.038789208148904</v>
       </c>
       <c r="L16">
-        <v>1.005420661700117</v>
+        <v>1.032351536072617</v>
       </c>
       <c r="M16">
-        <v>1.024018340096898</v>
+        <v>1.046761195537795</v>
       </c>
       <c r="N16">
-        <v>1.006973691630445</v>
+        <v>1.01446831433595</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9826505561411164</v>
+        <v>1.025433451779364</v>
       </c>
       <c r="D17">
-        <v>1.009154057027884</v>
+        <v>1.035630334358317</v>
       </c>
       <c r="E17">
-        <v>0.9925650335607946</v>
+        <v>1.029231824497804</v>
       </c>
       <c r="F17">
-        <v>1.011472140838405</v>
+        <v>1.043681815074389</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040384463652849</v>
+        <v>1.033793296599659</v>
       </c>
       <c r="J17">
-        <v>1.010792170374481</v>
+        <v>1.031686870693527</v>
       </c>
       <c r="K17">
-        <v>1.023003463872474</v>
+        <v>1.038997463474123</v>
       </c>
       <c r="L17">
-        <v>1.006704692736912</v>
+        <v>1.032621422977525</v>
       </c>
       <c r="M17">
-        <v>1.025281968027937</v>
+        <v>1.047021100908736</v>
       </c>
       <c r="N17">
-        <v>1.0073488142021</v>
+        <v>1.014544261683415</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.983737834370908</v>
+        <v>1.025646313580869</v>
       </c>
       <c r="D18">
-        <v>1.009962524551627</v>
+        <v>1.035794255195891</v>
       </c>
       <c r="E18">
-        <v>0.9935165936096348</v>
+        <v>1.029432203447245</v>
       </c>
       <c r="F18">
-        <v>1.012405504465405</v>
+        <v>1.043875628846093</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040648132244935</v>
+        <v>1.033830183207105</v>
       </c>
       <c r="J18">
-        <v>1.011429603916831</v>
+        <v>1.031818380241609</v>
       </c>
       <c r="K18">
-        <v>1.0236114794708</v>
+        <v>1.039118897255832</v>
       </c>
       <c r="L18">
-        <v>1.007448185475188</v>
+        <v>1.032778882751215</v>
       </c>
       <c r="M18">
-        <v>1.026013484236322</v>
+        <v>1.047172703936259</v>
       </c>
       <c r="N18">
-        <v>1.00756590755202</v>
+        <v>1.014588552252036</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9841071896783969</v>
+        <v>1.025718906175313</v>
       </c>
       <c r="D19">
-        <v>1.01023724561651</v>
+        <v>1.035850155058797</v>
       </c>
       <c r="E19">
-        <v>0.9938399856453726</v>
+        <v>1.029500546916376</v>
       </c>
       <c r="F19">
-        <v>1.012722692174394</v>
+        <v>1.043941728068235</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040737516149254</v>
+        <v>1.033842736965701</v>
       </c>
       <c r="J19">
-        <v>1.011646124741992</v>
+        <v>1.03186322168689</v>
       </c>
       <c r="K19">
-        <v>1.023817971576308</v>
+        <v>1.03916029655324</v>
       </c>
       <c r="L19">
-        <v>1.007700783456082</v>
+        <v>1.032832579096814</v>
       </c>
       <c r="M19">
-        <v>1.026261985059378</v>
+        <v>1.047224397394703</v>
       </c>
       <c r="N19">
-        <v>1.007639644444381</v>
+        <v>1.014603652782457</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9824499003232203</v>
+        <v>1.025394303259729</v>
       </c>
       <c r="D20">
-        <v>1.009004893843668</v>
+        <v>1.035600185730792</v>
       </c>
       <c r="E20">
-        <v>0.9923894919570905</v>
+        <v>1.029194975527463</v>
       </c>
       <c r="F20">
-        <v>1.011299946623028</v>
+        <v>1.043646171019186</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040335715731128</v>
+        <v>1.033786500377955</v>
       </c>
       <c r="J20">
-        <v>1.01067452392145</v>
+        <v>1.031662680550173</v>
       </c>
       <c r="K20">
-        <v>1.022891229793433</v>
+        <v>1.038975123573734</v>
       </c>
       <c r="L20">
-        <v>1.0065674961751</v>
+        <v>1.032592462592549</v>
       </c>
       <c r="M20">
-        <v>1.025146968211403</v>
+        <v>1.046993215034549</v>
       </c>
       <c r="N20">
-        <v>1.007308744762886</v>
+        <v>1.014536114100586</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9769633481272589</v>
+        <v>1.024339839045533</v>
       </c>
       <c r="D21">
-        <v>1.004931087508839</v>
+        <v>1.034788009393484</v>
       </c>
       <c r="E21">
-        <v>0.9875977292665067</v>
+        <v>1.028202885604871</v>
       </c>
       <c r="F21">
-        <v>1.006598536998017</v>
+        <v>1.042686245107551</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038992676413003</v>
+        <v>1.033602035446064</v>
       </c>
       <c r="J21">
-        <v>1.007456827026425</v>
+        <v>1.031010712407326</v>
       </c>
       <c r="K21">
-        <v>1.019819637289298</v>
+        <v>1.03837266391303</v>
       </c>
       <c r="L21">
-        <v>1.00281793857917</v>
+        <v>1.031812285247415</v>
       </c>
       <c r="M21">
-        <v>1.021455967218748</v>
+        <v>1.046241676124513</v>
       </c>
       <c r="N21">
-        <v>1.006212593404828</v>
+        <v>1.014316443443417</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9734344692110609</v>
+        <v>1.02367751327933</v>
       </c>
       <c r="D22">
-        <v>1.002315918415827</v>
+        <v>1.034277751503809</v>
       </c>
       <c r="E22">
-        <v>0.9845238873333156</v>
+        <v>1.02758016305281</v>
       </c>
       <c r="F22">
-        <v>1.003581771631176</v>
+        <v>1.042083444575439</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038119229863672</v>
+        <v>1.033484805166439</v>
       </c>
       <c r="J22">
-        <v>1.005386610949977</v>
+        <v>1.030600807390997</v>
       </c>
       <c r="K22">
-        <v>1.017841635696906</v>
+        <v>1.037993538766269</v>
       </c>
       <c r="L22">
-        <v>1.000408292231278</v>
+        <v>1.031322118941362</v>
       </c>
       <c r="M22">
-        <v>1.019082605302223</v>
+        <v>1.045769204505013</v>
       </c>
       <c r="N22">
-        <v>1.005507144826076</v>
+        <v>1.014178256370424</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9753129580139032</v>
+        <v>1.024028562013094</v>
       </c>
       <c r="D23">
-        <v>1.003707516874177</v>
+        <v>1.034548211430413</v>
       </c>
       <c r="E23">
-        <v>0.9861593626979935</v>
+        <v>1.027910180652192</v>
       </c>
       <c r="F23">
-        <v>1.005186953445684</v>
+        <v>1.042402929586003</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038585068929991</v>
+        <v>1.033547069440496</v>
       </c>
       <c r="J23">
-        <v>1.006488668957749</v>
+        <v>1.030818104204917</v>
       </c>
       <c r="K23">
-        <v>1.018894765468111</v>
+        <v>1.038194551544452</v>
       </c>
       <c r="L23">
-        <v>1.001690783582952</v>
+        <v>1.03158193065652</v>
       </c>
       <c r="M23">
-        <v>1.020345904420032</v>
+        <v>1.046019665401495</v>
       </c>
       <c r="N23">
-        <v>1.00588270038389</v>
+        <v>1.014251518587127</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.982540593491642</v>
+        <v>1.025411992567513</v>
       </c>
       <c r="D24">
-        <v>1.009072311686356</v>
+        <v>1.035613808467952</v>
       </c>
       <c r="E24">
-        <v>0.9924688313046928</v>
+        <v>1.029211625636514</v>
       </c>
       <c r="F24">
-        <v>1.011377773412839</v>
+        <v>1.043662276782548</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.0403577523728</v>
+        <v>1.033789571728047</v>
       </c>
       <c r="J24">
-        <v>1.010727698538205</v>
+        <v>1.031673611032641</v>
       </c>
       <c r="K24">
-        <v>1.02294195874108</v>
+        <v>1.038985218130718</v>
       </c>
       <c r="L24">
-        <v>1.006629506240815</v>
+        <v>1.032605548422596</v>
       </c>
       <c r="M24">
-        <v>1.025207985898158</v>
+        <v>1.047005815446617</v>
       </c>
       <c r="N24">
-        <v>1.007326855691072</v>
+        <v>1.014539795668043</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9906063863200854</v>
+        <v>1.027020216556612</v>
       </c>
       <c r="D25">
-        <v>1.015077618072504</v>
+        <v>1.036852020177368</v>
       </c>
       <c r="E25">
-        <v>0.9995422567620753</v>
+        <v>1.03072637753895</v>
       </c>
       <c r="F25">
-        <v>1.018313671720409</v>
+        <v>1.045126860959887</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042293914417835</v>
+        <v>1.034065521049629</v>
       </c>
       <c r="J25">
-        <v>1.015454071915475</v>
+        <v>1.032666402838615</v>
       </c>
       <c r="K25">
-        <v>1.027446296981905</v>
+        <v>1.039901246926823</v>
       </c>
       <c r="L25">
-        <v>1.012147682763099</v>
+        <v>1.033794937612152</v>
       </c>
       <c r="M25">
-        <v>1.030634191163038</v>
+        <v>1.048150364199649</v>
       </c>
       <c r="N25">
-        <v>1.008936035654451</v>
+        <v>1.014874000698027</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_243/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_243/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028305176942251</v>
+        <v>0.9968040407068165</v>
       </c>
       <c r="D2">
-        <v>1.037840886292024</v>
+        <v>1.019703926744854</v>
       </c>
       <c r="E2">
-        <v>1.031938115144355</v>
+        <v>1.00500132357764</v>
       </c>
       <c r="F2">
-        <v>1.046297517379998</v>
+        <v>1.023662182483051</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034281192670563</v>
+        <v>1.043746108701503</v>
       </c>
       <c r="J2">
-        <v>1.03345823320821</v>
+        <v>1.019080764382728</v>
       </c>
       <c r="K2">
-        <v>1.040630621576836</v>
+        <v>1.030895413490551</v>
       </c>
       <c r="L2">
-        <v>1.034744788759741</v>
+        <v>1.01639141899822</v>
       </c>
       <c r="M2">
-        <v>1.049063347252654</v>
+        <v>1.034801421617361</v>
       </c>
       <c r="N2">
-        <v>1.015140285291993</v>
+        <v>1.010169839237711</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029239457544107</v>
+        <v>1.001178117585445</v>
       </c>
       <c r="D3">
-        <v>1.038559601824744</v>
+        <v>1.022974606351795</v>
       </c>
       <c r="E3">
-        <v>1.032819993698733</v>
+        <v>1.008867124784794</v>
       </c>
       <c r="F3">
-        <v>1.047148944768834</v>
+        <v>1.027446768453161</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034435212746929</v>
+        <v>1.044749583046749</v>
       </c>
       <c r="J3">
-        <v>1.034033144457662</v>
+        <v>1.021636717370331</v>
       </c>
       <c r="K3">
-        <v>1.04115946888435</v>
+        <v>1.033321725549626</v>
       </c>
       <c r="L3">
-        <v>1.035435139295659</v>
+        <v>1.019387792481564</v>
       </c>
       <c r="M3">
-        <v>1.049726285302669</v>
+        <v>1.037740105905368</v>
       </c>
       <c r="N3">
-        <v>1.015333464076639</v>
+        <v>1.0110387346327</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.029844588848975</v>
+        <v>1.003953397229552</v>
       </c>
       <c r="D4">
-        <v>1.039024979043206</v>
+        <v>1.025051991990989</v>
       </c>
       <c r="E4">
-        <v>1.033391568531935</v>
+        <v>1.01132566477315</v>
       </c>
       <c r="F4">
-        <v>1.047700526418051</v>
+        <v>1.029852188547522</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034533678277589</v>
+        <v>1.045376071126948</v>
       </c>
       <c r="J4">
-        <v>1.034405131790107</v>
+        <v>1.023256512497995</v>
       </c>
       <c r="K4">
-        <v>1.041501317872235</v>
+        <v>1.034857178836004</v>
       </c>
       <c r="L4">
-        <v>1.035882147632458</v>
+        <v>1.021289294059519</v>
       </c>
       <c r="M4">
-        <v>1.050155257396035</v>
+        <v>1.039603194726981</v>
       </c>
       <c r="N4">
-        <v>1.015458383820889</v>
+        <v>1.011589060214438</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030099126035331</v>
+        <v>1.005107402549191</v>
       </c>
       <c r="D5">
-        <v>1.039220698759859</v>
+        <v>1.025916271344629</v>
       </c>
       <c r="E5">
-        <v>1.033632082300019</v>
+        <v>1.012349308513896</v>
       </c>
       <c r="F5">
-        <v>1.047932565636267</v>
+        <v>1.030853346173526</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034574786333646</v>
+        <v>1.045634086237628</v>
       </c>
       <c r="J5">
-        <v>1.034561509749921</v>
+        <v>1.023929555978098</v>
       </c>
       <c r="K5">
-        <v>1.041644946105406</v>
+        <v>1.035494637837833</v>
       </c>
       <c r="L5">
-        <v>1.036070141848781</v>
+        <v>1.022080017383636</v>
       </c>
       <c r="M5">
-        <v>1.05033559755821</v>
+        <v>1.040377496659078</v>
       </c>
       <c r="N5">
-        <v>1.015510880553147</v>
+        <v>1.011817645370717</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030141872126207</v>
+        <v>1.005300431897608</v>
       </c>
       <c r="D6">
-        <v>1.039253565323041</v>
+        <v>1.02606086448786</v>
       </c>
       <c r="E6">
-        <v>1.033672478696669</v>
+        <v>1.012520610363129</v>
       </c>
       <c r="F6">
-        <v>1.047971535043195</v>
+        <v>1.031020862925387</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034581671718925</v>
+        <v>1.045677096707876</v>
       </c>
       <c r="J6">
-        <v>1.034587765943857</v>
+        <v>1.0240421053659</v>
       </c>
       <c r="K6">
-        <v>1.041669056895085</v>
+        <v>1.035601204467274</v>
       </c>
       <c r="L6">
-        <v>1.036101711087085</v>
+        <v>1.022212282757431</v>
       </c>
       <c r="M6">
-        <v>1.050365877443136</v>
+        <v>1.040506988449546</v>
       </c>
       <c r="N6">
-        <v>1.015519693828346</v>
+        <v>1.011855865518353</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.029847989438622</v>
+        <v>1.003968866508162</v>
       </c>
       <c r="D7">
-        <v>1.03902759396633</v>
+        <v>1.025063575753482</v>
       </c>
       <c r="E7">
-        <v>1.033394781411453</v>
+        <v>1.011339381313027</v>
       </c>
       <c r="F7">
-        <v>1.04770362633319</v>
+        <v>1.029865605257562</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034534228693313</v>
+        <v>1.045379539665463</v>
       </c>
       <c r="J7">
-        <v>1.034407221343032</v>
+        <v>1.023265536541821</v>
       </c>
       <c r="K7">
-        <v>1.041503237375473</v>
+        <v>1.034865727921208</v>
       </c>
       <c r="L7">
-        <v>1.035884659339314</v>
+        <v>1.021299893447726</v>
       </c>
       <c r="M7">
-        <v>1.050157667110641</v>
+        <v>1.039613575779933</v>
       </c>
       <c r="N7">
-        <v>1.015459085362045</v>
+        <v>1.011592125369254</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.028620798774823</v>
+        <v>0.9982939576868473</v>
       </c>
       <c r="D8">
-        <v>1.03808371235328</v>
+        <v>1.020817504836826</v>
       </c>
       <c r="E8">
-        <v>1.032235954543607</v>
+        <v>1.006316881148448</v>
       </c>
       <c r="F8">
-        <v>1.046585125453335</v>
+        <v>1.024950399188786</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034333491713284</v>
+        <v>1.04409002848728</v>
       </c>
       <c r="J8">
-        <v>1.033652530400522</v>
+        <v>1.019951764615294</v>
       </c>
       <c r="K8">
-        <v>1.040809419898882</v>
+        <v>1.031722684081977</v>
       </c>
       <c r="L8">
-        <v>1.034978032005405</v>
+        <v>1.017411960774084</v>
       </c>
       <c r="M8">
-        <v>1.049287388044505</v>
+        <v>1.035802683360757</v>
       </c>
       <c r="N8">
-        <v>1.015205587251458</v>
+        <v>1.010466000900126</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.026462893412457</v>
+        <v>0.9878509274842072</v>
       </c>
       <c r="D9">
-        <v>1.036422992106658</v>
+        <v>1.013024006855591</v>
       </c>
       <c r="E9">
-        <v>1.030201219588018</v>
+        <v>0.9971219140897954</v>
       </c>
       <c r="F9">
-        <v>1.044619242258252</v>
+        <v>1.015941030242651</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033970635351037</v>
+        <v>1.041637960716979</v>
       </c>
       <c r="J9">
-        <v>1.032322571362565</v>
+        <v>1.013840117729931</v>
       </c>
       <c r="K9">
-        <v>1.039584190646869</v>
+        <v>1.02590925451374</v>
       </c>
       <c r="L9">
-        <v>1.033382830497585</v>
+        <v>1.01026185945924</v>
       </c>
       <c r="M9">
-        <v>1.047753956964096</v>
+        <v>1.02878066342165</v>
       </c>
       <c r="N9">
-        <v>1.01475829787706</v>
+        <v>1.008386677519281</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.025027420588707</v>
+        <v>0.9805589589809436</v>
       </c>
       <c r="D10">
-        <v>1.035317629798499</v>
+        <v>1.007599805787813</v>
       </c>
       <c r="E10">
-        <v>1.028849699800504</v>
+        <v>0.9907362520999001</v>
       </c>
       <c r="F10">
-        <v>1.043312149429177</v>
+        <v>1.009678094923243</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033722625917546</v>
+        <v>1.039875006949827</v>
       </c>
       <c r="J10">
-        <v>1.031435928139813</v>
+        <v>1.009565722332566</v>
       </c>
       <c r="K10">
-        <v>1.0387656681741</v>
+        <v>1.021833185880743</v>
       </c>
       <c r="L10">
-        <v>1.032321041601073</v>
+        <v>1.005274805320521</v>
       </c>
       <c r="M10">
-        <v>1.046731824385925</v>
+        <v>1.023874779700503</v>
       </c>
       <c r="N10">
-        <v>1.014459730450078</v>
+        <v>1.006931065102513</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.024406600723077</v>
+        <v>0.9773154673318546</v>
       </c>
       <c r="D11">
-        <v>1.034839437919546</v>
+        <v>1.005192255910062</v>
       </c>
       <c r="E11">
-        <v>1.028265673395345</v>
+        <v>0.9879047922630089</v>
       </c>
       <c r="F11">
-        <v>1.042747012897803</v>
+        <v>1.00689986395803</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033613794274088</v>
+        <v>1.039079433739727</v>
       </c>
       <c r="J11">
-        <v>1.031052013716292</v>
+        <v>1.007663376462284</v>
       </c>
       <c r="K11">
-        <v>1.03841084921059</v>
+        <v>1.020016913707255</v>
       </c>
       <c r="L11">
-        <v>1.031861688213268</v>
+        <v>1.003058468929746</v>
       </c>
       <c r="M11">
-        <v>1.046289283054354</v>
+        <v>1.021692821557575</v>
       </c>
       <c r="N11">
-        <v>1.014330363721912</v>
+        <v>1.006282969442265</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.02417611417871</v>
+        <v>0.9760970567765711</v>
       </c>
       <c r="D12">
-        <v>1.034661883374991</v>
+        <v>1.004288724451435</v>
       </c>
       <c r="E12">
-        <v>1.028048920267137</v>
+        <v>0.9868425560069203</v>
       </c>
       <c r="F12">
-        <v>1.042537224309632</v>
+        <v>1.005857442681654</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033573153282687</v>
+        <v>1.038778921189085</v>
       </c>
       <c r="J12">
-        <v>1.030909413006208</v>
+        <v>1.006948650844777</v>
       </c>
       <c r="K12">
-        <v>1.038278995678173</v>
+        <v>1.019334217948947</v>
       </c>
       <c r="L12">
-        <v>1.031691126407484</v>
+        <v>1.002226249042601</v>
       </c>
       <c r="M12">
-        <v>1.046124912153467</v>
+        <v>1.020873277190781</v>
       </c>
       <c r="N12">
-        <v>1.014282298781717</v>
+        <v>1.006039439944417</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.024225549168068</v>
+        <v>0.976359038842185</v>
       </c>
       <c r="D13">
-        <v>1.034699966361821</v>
+        <v>1.004482961118102</v>
       </c>
       <c r="E13">
-        <v>1.028095406368093</v>
+        <v>0.9870708935357574</v>
       </c>
       <c r="F13">
-        <v>1.042582218843401</v>
+        <v>1.006081527352267</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03358188068208</v>
+        <v>1.038843611206679</v>
       </c>
       <c r="J13">
-        <v>1.030940001226822</v>
+        <v>1.00710233513432</v>
       </c>
       <c r="K13">
-        <v>1.038307281313747</v>
+        <v>1.019481028604782</v>
       </c>
       <c r="L13">
-        <v>1.031727709647036</v>
+        <v>1.002405176233785</v>
       </c>
       <c r="M13">
-        <v>1.046160169856887</v>
+        <v>1.021049489333727</v>
       </c>
       <c r="N13">
-        <v>1.01429260942819</v>
+        <v>1.006091806521039</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.024387546310203</v>
+        <v>0.9772150355256788</v>
       </c>
       <c r="D14">
-        <v>1.034824759825681</v>
+        <v>1.00511776115295</v>
       </c>
       <c r="E14">
-        <v>1.028247752828276</v>
+        <v>0.9878172049656463</v>
       </c>
       <c r="F14">
-        <v>1.042729669081558</v>
+        <v>1.006813913503657</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033610439281651</v>
+        <v>1.039054696283764</v>
       </c>
       <c r="J14">
-        <v>1.031040226246388</v>
+        <v>1.007604464690357</v>
       </c>
       <c r="K14">
-        <v>1.038399951332566</v>
+        <v>1.019960648171682</v>
       </c>
       <c r="L14">
-        <v>1.031847588239563</v>
+        <v>1.002989862987969</v>
       </c>
       <c r="M14">
-        <v>1.046275695920243</v>
+        <v>1.021625265167359</v>
       </c>
       <c r="N14">
-        <v>1.014326390909128</v>
+        <v>1.006262897033252</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.024487373179076</v>
+        <v>0.9777406147413229</v>
       </c>
       <c r="D15">
-        <v>1.034901658148768</v>
+        <v>1.005507642289195</v>
       </c>
       <c r="E15">
-        <v>1.02834164244187</v>
+        <v>0.9882756236044904</v>
       </c>
       <c r="F15">
-        <v>1.0428205350859</v>
+        <v>1.007263759018467</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033628006562344</v>
+        <v>1.039184084991868</v>
       </c>
       <c r="J15">
-        <v>1.031101978510542</v>
+        <v>1.007912757141652</v>
       </c>
       <c r="K15">
-        <v>1.038457040741517</v>
+        <v>1.020255080089091</v>
       </c>
       <c r="L15">
-        <v>1.031921457713031</v>
+        <v>1.003348905520383</v>
       </c>
       <c r="M15">
-        <v>1.046346876526903</v>
+        <v>1.021978805591163</v>
       </c>
       <c r="N15">
-        <v>1.014347203166385</v>
+        <v>1.006367936984247</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.025068638232885</v>
+        <v>0.9807723469893559</v>
       </c>
       <c r="D16">
-        <v>1.035349375161015</v>
+        <v>1.007758312034141</v>
       </c>
       <c r="E16">
-        <v>1.028888484914164</v>
+        <v>0.9909227230955227</v>
       </c>
       <c r="F16">
-        <v>1.043349673582176</v>
+        <v>1.009861037663657</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033729818383351</v>
+        <v>1.039927114367798</v>
       </c>
       <c r="J16">
-        <v>1.031461407529007</v>
+        <v>1.009690858448898</v>
       </c>
       <c r="K16">
-        <v>1.038789208148904</v>
+        <v>1.02195261611713</v>
       </c>
       <c r="L16">
-        <v>1.032351536072617</v>
+        <v>1.005420661700118</v>
       </c>
       <c r="M16">
-        <v>1.046761195537795</v>
+        <v>1.024018340096899</v>
       </c>
       <c r="N16">
-        <v>1.01446831433595</v>
+        <v>1.006973691630445</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.025433451779364</v>
+        <v>0.982650556141116</v>
       </c>
       <c r="D17">
-        <v>1.035630334358317</v>
+        <v>1.009154057027884</v>
       </c>
       <c r="E17">
-        <v>1.029231824497804</v>
+        <v>0.9925650335607938</v>
       </c>
       <c r="F17">
-        <v>1.043681815074389</v>
+        <v>1.011472140838405</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033793296599659</v>
+        <v>1.040384463652849</v>
       </c>
       <c r="J17">
-        <v>1.031686870693527</v>
+        <v>1.01079217037448</v>
       </c>
       <c r="K17">
-        <v>1.038997463474123</v>
+        <v>1.023003463872473</v>
       </c>
       <c r="L17">
-        <v>1.032621422977525</v>
+        <v>1.006704692736911</v>
       </c>
       <c r="M17">
-        <v>1.047021100908736</v>
+        <v>1.025281968027937</v>
       </c>
       <c r="N17">
-        <v>1.014544261683415</v>
+        <v>1.0073488142021</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.025646313580869</v>
+        <v>0.9837378343709082</v>
       </c>
       <c r="D18">
-        <v>1.035794255195891</v>
+        <v>1.009962524551627</v>
       </c>
       <c r="E18">
-        <v>1.029432203447245</v>
+        <v>0.9935165936096352</v>
       </c>
       <c r="F18">
-        <v>1.043875628846093</v>
+        <v>1.012405504465406</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033830183207105</v>
+        <v>1.040648132244935</v>
       </c>
       <c r="J18">
-        <v>1.031818380241609</v>
+        <v>1.011429603916831</v>
       </c>
       <c r="K18">
-        <v>1.039118897255832</v>
+        <v>1.0236114794708</v>
       </c>
       <c r="L18">
-        <v>1.032778882751215</v>
+        <v>1.007448185475188</v>
       </c>
       <c r="M18">
-        <v>1.047172703936259</v>
+        <v>1.026013484236322</v>
       </c>
       <c r="N18">
-        <v>1.014588552252036</v>
+        <v>1.00756590755202</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.025718906175313</v>
+        <v>0.9841071896783973</v>
       </c>
       <c r="D19">
-        <v>1.035850155058797</v>
+        <v>1.01023724561651</v>
       </c>
       <c r="E19">
-        <v>1.029500546916376</v>
+        <v>0.9938399856453726</v>
       </c>
       <c r="F19">
-        <v>1.043941728068235</v>
+        <v>1.012722692174394</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033842736965701</v>
+        <v>1.040737516149254</v>
       </c>
       <c r="J19">
-        <v>1.03186322168689</v>
+        <v>1.011646124741992</v>
       </c>
       <c r="K19">
-        <v>1.03916029655324</v>
+        <v>1.023817971576308</v>
       </c>
       <c r="L19">
-        <v>1.032832579096814</v>
+        <v>1.007700783456082</v>
       </c>
       <c r="M19">
-        <v>1.047224397394703</v>
+        <v>1.026261985059378</v>
       </c>
       <c r="N19">
-        <v>1.014603652782457</v>
+        <v>1.007639644444381</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.025394303259729</v>
+        <v>0.9824499003232205</v>
       </c>
       <c r="D20">
-        <v>1.035600185730792</v>
+        <v>1.009004893843668</v>
       </c>
       <c r="E20">
-        <v>1.029194975527463</v>
+        <v>0.9923894919570905</v>
       </c>
       <c r="F20">
-        <v>1.043646171019186</v>
+        <v>1.011299946623028</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033786500377955</v>
+        <v>1.040335715731128</v>
       </c>
       <c r="J20">
-        <v>1.031662680550173</v>
+        <v>1.010674523921451</v>
       </c>
       <c r="K20">
-        <v>1.038975123573734</v>
+        <v>1.022891229793433</v>
       </c>
       <c r="L20">
-        <v>1.032592462592549</v>
+        <v>1.006567496175101</v>
       </c>
       <c r="M20">
-        <v>1.046993215034549</v>
+        <v>1.025146968211404</v>
       </c>
       <c r="N20">
-        <v>1.014536114100586</v>
+        <v>1.007308744762886</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.024339839045533</v>
+        <v>0.9769633481272598</v>
       </c>
       <c r="D21">
-        <v>1.034788009393484</v>
+        <v>1.00493108750884</v>
       </c>
       <c r="E21">
-        <v>1.028202885604871</v>
+        <v>0.9875977292665079</v>
       </c>
       <c r="F21">
-        <v>1.042686245107551</v>
+        <v>1.006598536998017</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033602035446064</v>
+        <v>1.038992676413003</v>
       </c>
       <c r="J21">
-        <v>1.031010712407326</v>
+        <v>1.007456827026426</v>
       </c>
       <c r="K21">
-        <v>1.03837266391303</v>
+        <v>1.019819637289298</v>
       </c>
       <c r="L21">
-        <v>1.031812285247415</v>
+        <v>1.002817938579171</v>
       </c>
       <c r="M21">
-        <v>1.046241676124513</v>
+        <v>1.021455967218748</v>
       </c>
       <c r="N21">
-        <v>1.014316443443417</v>
+        <v>1.006212593404828</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.02367751327933</v>
+        <v>0.9734344692110604</v>
       </c>
       <c r="D22">
-        <v>1.034277751503809</v>
+        <v>1.002315918415826</v>
       </c>
       <c r="E22">
-        <v>1.02758016305281</v>
+        <v>0.9845238873333149</v>
       </c>
       <c r="F22">
-        <v>1.042083444575439</v>
+        <v>1.003581771631176</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033484805166439</v>
+        <v>1.038119229863672</v>
       </c>
       <c r="J22">
-        <v>1.030600807390997</v>
+        <v>1.005386610949977</v>
       </c>
       <c r="K22">
-        <v>1.037993538766269</v>
+        <v>1.017841635696905</v>
       </c>
       <c r="L22">
-        <v>1.031322118941362</v>
+        <v>1.000408292231277</v>
       </c>
       <c r="M22">
-        <v>1.045769204505013</v>
+        <v>1.019082605302222</v>
       </c>
       <c r="N22">
-        <v>1.014178256370424</v>
+        <v>1.005507144826075</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.024028562013094</v>
+        <v>0.9753129580139044</v>
       </c>
       <c r="D23">
-        <v>1.034548211430413</v>
+        <v>1.003707516874178</v>
       </c>
       <c r="E23">
-        <v>1.027910180652192</v>
+        <v>0.9861593626979949</v>
       </c>
       <c r="F23">
-        <v>1.042402929586003</v>
+        <v>1.005186953445686</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033547069440496</v>
+        <v>1.038585068929991</v>
       </c>
       <c r="J23">
-        <v>1.030818104204917</v>
+        <v>1.00648866895775</v>
       </c>
       <c r="K23">
-        <v>1.038194551544452</v>
+        <v>1.018894765468112</v>
       </c>
       <c r="L23">
-        <v>1.03158193065652</v>
+        <v>1.001690783582953</v>
       </c>
       <c r="M23">
-        <v>1.046019665401495</v>
+        <v>1.020345904420033</v>
       </c>
       <c r="N23">
-        <v>1.014251518587127</v>
+        <v>1.005882700383891</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.025411992567513</v>
+        <v>0.9825405934916432</v>
       </c>
       <c r="D24">
-        <v>1.035613808467952</v>
+        <v>1.009072311686358</v>
       </c>
       <c r="E24">
-        <v>1.029211625636514</v>
+        <v>0.9924688313046943</v>
       </c>
       <c r="F24">
-        <v>1.043662276782548</v>
+        <v>1.01137777341284</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033789571728047</v>
+        <v>1.040357752372801</v>
       </c>
       <c r="J24">
-        <v>1.031673611032641</v>
+        <v>1.010727698538206</v>
       </c>
       <c r="K24">
-        <v>1.038985218130718</v>
+        <v>1.022941958741081</v>
       </c>
       <c r="L24">
-        <v>1.032605548422596</v>
+        <v>1.006629506240816</v>
       </c>
       <c r="M24">
-        <v>1.047005815446617</v>
+        <v>1.025207985898159</v>
       </c>
       <c r="N24">
-        <v>1.014539795668043</v>
+        <v>1.007326855691073</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.027020216556612</v>
+        <v>0.9906063863200856</v>
       </c>
       <c r="D25">
-        <v>1.036852020177368</v>
+        <v>1.015077618072505</v>
       </c>
       <c r="E25">
-        <v>1.03072637753895</v>
+        <v>0.9995422567620755</v>
       </c>
       <c r="F25">
-        <v>1.045126860959887</v>
+        <v>1.01831367172041</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034065521049629</v>
+        <v>1.042293914417836</v>
       </c>
       <c r="J25">
-        <v>1.032666402838615</v>
+        <v>1.015454071915475</v>
       </c>
       <c r="K25">
-        <v>1.039901246926823</v>
+        <v>1.027446296981906</v>
       </c>
       <c r="L25">
-        <v>1.033794937612152</v>
+        <v>1.012147682763099</v>
       </c>
       <c r="M25">
-        <v>1.048150364199649</v>
+        <v>1.030634191163039</v>
       </c>
       <c r="N25">
-        <v>1.014874000698027</v>
+        <v>1.008936035654451</v>
       </c>
     </row>
   </sheetData>
